--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="236">
   <si>
     <t>Language-Name</t>
   </si>
@@ -758,6 +758,12 @@
   </si>
   <si>
     <t>පින්තුර සගවන්න</t>
+  </si>
+  <si>
+    <t>USB Port</t>
+  </si>
+  <si>
+    <t>USB පෝර්ට්</t>
   </si>
 </sst>
 </file>
@@ -1176,6 +1182,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1469,10 +1571,10 @@
   <dimension ref="A1:T235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -3351,6 +3453,12 @@
       <c r="Q120" s="6"/>
     </row>
     <row r="121" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="Q121" s="6"/>
     </row>
     <row r="122" spans="1:17" ht="13.5" customHeight="1">

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="238">
   <si>
     <t>Language-Name</t>
   </si>
@@ -286,21 +286,6 @@
     <t>භාෂාව</t>
   </si>
   <si>
-    <t>get temperature from %d.sockets socket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">උෂ්ණත්වය කියවන්න %d.sockets සොකට්ටුවෙන් </t>
-  </si>
-  <si>
-    <t>get humidity from %d.sockets socket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ආර්දතාවය කියවන්න %d.sockets සොකට්ටුවෙන් </t>
-  </si>
-  <si>
-    <t>get temperature from %d.sockets DH18B20</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -724,9 +709,6 @@
     <t>පිටපතක්</t>
   </si>
   <si>
-    <t xml:space="preserve">%d.sockets සොකට්ටුවෙන් DH18B20 හි උෂ්ණත්වය කියවන්න </t>
-  </si>
-  <si>
     <t>සාර්ථකව ඉවත්වන ලදි!</t>
   </si>
   <si>
@@ -764,6 +746,30 @@
   </si>
   <si>
     <t>USB පෝර්ට්</t>
+  </si>
+  <si>
+    <t>get temperature from Horus at %d.sockets</t>
+  </si>
+  <si>
+    <t>get humidity from Helios at %d.sockets socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heliosහි උෂ්ණත්වය කියවන්න %d.sockets සොකට්ටුවෙන් </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heliosහි ආර්දතාවය කියවන්න %d.sockets සොකට්ටුවෙන් </t>
+  </si>
+  <si>
+    <t>get temperature from Helios at %d.sockets socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%d.sockets සොකට්ටුවෙන් Horusහි උෂ්ණත්වය කියවන්න </t>
+  </si>
+  <si>
+    <t>read value at %d.yellow</t>
+  </si>
+  <si>
+    <t>%d.yellow කියවන්න</t>
   </si>
 </sst>
 </file>
@@ -1278,6 +1284,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1571,10 +1625,10 @@
   <dimension ref="A1:T235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B121" sqref="B121"/>
+      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -1657,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -1682,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -1702,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -1727,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -1748,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
@@ -1773,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -1798,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -1822,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -1841,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3"/>
       <c r="M11" s="3"/>
@@ -1856,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -1880,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C13" s="3"/>
       <c r="G13" s="4"/>
@@ -1898,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C14" s="3"/>
       <c r="M14" s="5"/>
@@ -1914,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="4"/>
@@ -1931,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
@@ -1951,7 +2005,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3"/>
       <c r="M17" s="3"/>
@@ -1967,7 +2021,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
@@ -1992,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C19" s="3"/>
       <c r="M19" s="3"/>
@@ -2007,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3"/>
       <c r="M20" s="3"/>
@@ -2022,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
@@ -2046,7 +2100,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -2069,7 +2123,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
@@ -2093,7 +2147,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
@@ -2113,7 +2167,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -2137,7 +2191,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C26" s="3"/>
       <c r="M26" s="5"/>
@@ -2152,7 +2206,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
@@ -2176,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C28" s="3"/>
       <c r="M28" s="3"/>
@@ -2191,7 +2245,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -2215,7 +2269,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C30" s="3"/>
       <c r="M30" s="3"/>
@@ -2230,7 +2284,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3"/>
       <c r="M31" s="3"/>
@@ -2245,7 +2299,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
@@ -2269,7 +2323,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
@@ -2293,7 +2347,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
@@ -2317,7 +2371,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
@@ -2341,7 +2395,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
@@ -2365,7 +2419,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -2389,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
@@ -2413,7 +2467,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
@@ -2437,7 +2491,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
@@ -2461,7 +2515,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
@@ -2485,7 +2539,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
@@ -2509,7 +2563,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
@@ -2533,7 +2587,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
@@ -2557,7 +2611,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
@@ -2581,7 +2635,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
@@ -2621,7 +2675,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
@@ -2645,7 +2699,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="4"/>
@@ -2669,7 +2723,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="4"/>
@@ -2693,7 +2747,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C51" s="3"/>
       <c r="G51" s="4"/>
@@ -2709,7 +2763,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -2733,7 +2787,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
@@ -2757,7 +2811,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
@@ -2780,7 +2834,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="4"/>
@@ -2804,7 +2858,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="4"/>
@@ -2829,7 +2883,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
@@ -2854,7 +2908,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="4"/>
@@ -2879,7 +2933,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C59" s="3"/>
       <c r="M59" s="5"/>
@@ -2896,7 +2950,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C60" s="3"/>
       <c r="E60" s="4"/>
@@ -2977,307 +3031,307 @@
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q70" s="6"/>
     </row>
     <row r="71" spans="1:17" ht="13.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q71" s="6"/>
     </row>
     <row r="72" spans="1:17" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q72" s="6"/>
     </row>
     <row r="73" spans="1:17" ht="13.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q73" s="6"/>
     </row>
     <row r="74" spans="1:17" ht="13.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q74" s="6"/>
     </row>
     <row r="75" spans="1:17" ht="13.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q75" s="6"/>
     </row>
     <row r="76" spans="1:17" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q76" s="6"/>
     </row>
     <row r="77" spans="1:17" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q77" s="6"/>
     </row>
     <row r="78" spans="1:17" ht="13.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q78" s="6"/>
     </row>
     <row r="79" spans="1:17" ht="13.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Q79" s="6"/>
     </row>
     <row r="80" spans="1:17" ht="13.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Q80" s="6"/>
     </row>
     <row r="81" spans="1:17" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q81" s="6"/>
     </row>
     <row r="82" spans="1:17" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q82" s="6"/>
     </row>
     <row r="83" spans="1:17" ht="13.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q83" s="6"/>
     </row>
     <row r="84" spans="1:17" ht="13.5" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17" ht="13.5" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q85" s="6"/>
     </row>
     <row r="86" spans="1:17" ht="13.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q86" s="6"/>
     </row>
     <row r="87" spans="1:17" ht="13.5" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q87" s="6"/>
     </row>
     <row r="88" spans="1:17" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q88" s="6"/>
     </row>
     <row r="89" spans="1:17" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q89" s="6"/>
     </row>
     <row r="90" spans="1:17" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:17" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q91" s="6"/>
     </row>
     <row r="92" spans="1:17" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q92" s="6"/>
     </row>
     <row r="93" spans="1:17" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q93" s="6"/>
     </row>
     <row r="94" spans="1:17" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q94" s="6"/>
     </row>
     <row r="95" spans="1:17" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q95" s="6"/>
     </row>
     <row r="96" spans="1:17" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q96" s="6"/>
     </row>
     <row r="97" spans="1:17" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q97" s="6"/>
     </row>
     <row r="98" spans="1:17" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q98" s="6"/>
     </row>
     <row r="99" spans="1:17" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q99" s="6"/>
     </row>
     <row r="100" spans="1:17" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="1:17" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q101" s="6"/>
     </row>
@@ -3286,103 +3340,103 @@
         <v>22</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q102" s="6"/>
     </row>
     <row r="103" spans="1:17" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q103" s="6"/>
     </row>
     <row r="104" spans="1:17" ht="13.5" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q104" s="6"/>
     </row>
     <row r="105" spans="1:17" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q105" s="6"/>
     </row>
     <row r="106" spans="1:17" ht="13.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q106" s="6"/>
     </row>
     <row r="107" spans="1:17" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q107" s="6"/>
     </row>
     <row r="108" spans="1:17" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q108" s="6"/>
     </row>
     <row r="109" spans="1:17" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q109" s="6"/>
     </row>
     <row r="110" spans="1:17" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q110" s="6"/>
     </row>
     <row r="111" spans="1:17" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q111" s="6"/>
     </row>
     <row r="112" spans="1:17" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q112" s="6"/>
     </row>
     <row r="113" spans="1:17" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>63</v>
@@ -3391,77 +3445,83 @@
     </row>
     <row r="114" spans="1:17" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q114" s="6"/>
     </row>
     <row r="115" spans="1:17" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q115" s="6"/>
     </row>
     <row r="116" spans="1:17" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q116" s="6"/>
     </row>
     <row r="117" spans="1:17" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q117" s="6"/>
     </row>
     <row r="118" spans="1:17" ht="13.5" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q118" s="6"/>
     </row>
     <row r="119" spans="1:17" ht="13.5" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q119" s="6"/>
     </row>
     <row r="120" spans="1:17" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q120" s="6"/>
     </row>
     <row r="121" spans="1:17" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q121" s="6"/>
     </row>
     <row r="122" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="Q122" s="6"/>
     </row>
     <row r="123" spans="1:17" ht="13.5" customHeight="1">

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
   <si>
     <t>Language-Name</t>
   </si>
@@ -733,12 +733,6 @@
     <t>විජට් යැවීම සාර්ථක නැත</t>
   </si>
   <si>
-    <t>commiunicate as %m.topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%m.topic ලෙස සන්නිවේදනය කරන්න </t>
-  </si>
-  <si>
     <t>පින්තුර සගවන්න</t>
   </si>
   <si>
@@ -766,10 +760,22 @@
     <t xml:space="preserve">%d.sockets සොකට්ටුවෙන් Horusහි උෂ්ණත්වය කියවන්න </t>
   </si>
   <si>
-    <t>read value at %d.yellow</t>
-  </si>
-  <si>
-    <t>%d.yellow කියවන්න</t>
+    <t xml:space="preserve">control switch at %d.sockets via timer %d.timers </t>
+  </si>
+  <si>
+    <t>read value at %d.yellow from Theia</t>
+  </si>
+  <si>
+    <t>%d.yellow හි ඇති Theia අගය කියවන්න</t>
+  </si>
+  <si>
+    <t>%d.sockets සොකට්ටුව %d.timers මගින් පාලනය කරන්න</t>
+  </si>
+  <si>
+    <t>commiunicate as %m.widgetMqttTopics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%m.widgetMqttTopics ලෙස සන්නිවේදනය කරන්න </t>
   </si>
 </sst>
 </file>
@@ -1332,6 +1338,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1628,7 +1730,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2046,7 +2148,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="3"/>
       <c r="M19" s="3"/>
@@ -3031,28 +3133,28 @@
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q70" s="6"/>
     </row>
@@ -3499,32 +3601,38 @@
     </row>
     <row r="120" spans="1:17" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q120" s="6"/>
     </row>
     <row r="121" spans="1:17" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q121" s="6"/>
     </row>
     <row r="122" spans="1:17" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="Q122" s="6"/>
-    </row>
-    <row r="123" spans="1:17" ht="13.5" customHeight="1">
       <c r="Q123" s="6"/>
     </row>
     <row r="124" spans="1:17" ht="13.5" customHeight="1">

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -1434,6 +1434,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1730,7 +1778,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomRight" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>

--- a/src/locale/locale.xlsx
+++ b/src/locale/locale.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
   <si>
     <t>Language-Name</t>
   </si>
@@ -529,9 +529,6 @@
     <t>%s වචනයේ දිග</t>
   </si>
   <si>
-    <t>illumination : %s % at %d.sockets socket</t>
-  </si>
-  <si>
     <t>User Logged in Successfully!</t>
   </si>
   <si>
@@ -721,9 +718,6 @@
     <t xml:space="preserve">%d.state කරන්න, %d.sockets හි ස්විචය  </t>
   </si>
   <si>
-    <t xml:space="preserve">දීප්තිය : %s, %d.sockets  හි </t>
-  </si>
-  <si>
     <t>විජට් සකසන්න</t>
   </si>
   <si>
@@ -760,22 +754,34 @@
     <t xml:space="preserve">%d.sockets සොකට්ටුවෙන් Horusහි උෂ්ණත්වය කියවන්න </t>
   </si>
   <si>
-    <t xml:space="preserve">control switch at %d.sockets via timer %d.timers </t>
-  </si>
-  <si>
     <t>read value at %d.yellow from Theia</t>
   </si>
   <si>
     <t>%d.yellow හි ඇති Theia අගය කියවන්න</t>
   </si>
   <si>
-    <t>%d.sockets සොකට්ටුව %d.timers මගින් පාලනය කරන්න</t>
-  </si>
-  <si>
     <t>commiunicate as %m.widgetMqttTopics</t>
   </si>
   <si>
     <t xml:space="preserve">%m.widgetMqttTopics ලෙස සන්නිවේදනය කරන්න </t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off device at %d.sockets via timer %d.timers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on device at %d.sockets via timer %d.timers </t>
+  </si>
+  <si>
+    <t>%d.sockets සොකට්ටුව %d.timers මගින් ඕෆ් කරන්න</t>
+  </si>
+  <si>
+    <t>%d.sockets සොකට්ටුව %d.timers මගින් ඔන් කරන්න</t>
+  </si>
+  <si>
+    <t>set illumination : %s % at %d.sockets socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">දීප්තිය : %s, %d.sockets  හි ලෙස </t>
   </si>
 </sst>
 </file>
@@ -1482,6 +1488,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10963275" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1775,10 +1877,10 @@
   <dimension ref="A1:T235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A124" sqref="A124"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2060,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -2196,7 +2298,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" s="3"/>
       <c r="M19" s="3"/>
@@ -2569,7 +2671,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
@@ -2913,7 +3015,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
@@ -3033,7 +3135,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="4"/>
@@ -3181,28 +3283,28 @@
     </row>
     <row r="68" spans="1:17" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="1:17" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:17" ht="13.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q70" s="6"/>
     </row>
@@ -3256,7 +3358,7 @@
         <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q76" s="6"/>
     </row>
@@ -3346,7 +3448,7 @@
         <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q86" s="6"/>
     </row>
@@ -3355,133 +3457,133 @@
         <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q87" s="6"/>
     </row>
     <row r="88" spans="1:17" ht="13.5" customHeight="1">
       <c r="A88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="Q88" s="6"/>
     </row>
     <row r="89" spans="1:17" ht="13.5" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Q89" s="6"/>
     </row>
     <row r="90" spans="1:17" ht="13.5" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:17" ht="13.5" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q91" s="6"/>
     </row>
     <row r="92" spans="1:17" ht="13.5" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q92" s="6"/>
     </row>
     <row r="93" spans="1:17" ht="13.5" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q93" s="6"/>
     </row>
     <row r="94" spans="1:17" ht="13.5" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q94" s="6"/>
     </row>
     <row r="95" spans="1:17" ht="13.5" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q95" s="6"/>
     </row>
     <row r="96" spans="1:17" ht="13.5" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q96" s="6"/>
     </row>
     <row r="97" spans="1:17" ht="13.5" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q97" s="6"/>
     </row>
     <row r="98" spans="1:17" ht="13.5" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q98" s="6"/>
     </row>
     <row r="99" spans="1:17" ht="13.5" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q99" s="6"/>
     </row>
     <row r="100" spans="1:17" ht="13.5" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="1:17" ht="13.5" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q101" s="6"/>
     </row>
@@ -3490,103 +3592,103 @@
         <v>22</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q102" s="6"/>
     </row>
     <row r="103" spans="1:17" ht="13.5" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q103" s="6"/>
     </row>
     <row r="104" spans="1:17" ht="13.5" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q104" s="6"/>
     </row>
     <row r="105" spans="1:17" ht="13.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q105" s="6"/>
     </row>
     <row r="106" spans="1:17" ht="13.5" customHeight="1">
       <c r="A106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="Q106" s="6"/>
     </row>
     <row r="107" spans="1:17" ht="13.5" customHeight="1">
       <c r="A107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="Q107" s="6"/>
     </row>
     <row r="108" spans="1:17" ht="13.5" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q108" s="6"/>
     </row>
     <row r="109" spans="1:17" ht="13.5" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q109" s="6"/>
     </row>
     <row r="110" spans="1:17" ht="13.5" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q110" s="6"/>
     </row>
     <row r="111" spans="1:17" ht="13.5" customHeight="1">
       <c r="A111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="Q111" s="6"/>
     </row>
     <row r="112" spans="1:17" ht="13.5" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q112" s="6"/>
     </row>
     <row r="113" spans="1:17" ht="13.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>63</v>
@@ -3595,16 +3697,16 @@
     </row>
     <row r="114" spans="1:17" ht="13.5" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q114" s="6"/>
     </row>
     <row r="115" spans="1:17" ht="13.5" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>117</v>
@@ -3613,77 +3715,83 @@
     </row>
     <row r="116" spans="1:17" ht="13.5" customHeight="1">
       <c r="A116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="Q116" s="6"/>
     </row>
     <row r="117" spans="1:17" ht="13.5" customHeight="1">
       <c r="A117" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="Q117" s="6"/>
     </row>
     <row r="118" spans="1:17" ht="13.5" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q118" s="6"/>
     </row>
     <row r="119" spans="1:17" ht="13.5" customHeight="1">
       <c r="A119" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Q119" s="6"/>
     </row>
     <row r="120" spans="1:17" ht="13.5" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q120" s="6"/>
     </row>
     <row r="121" spans="1:17" ht="13.5" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q121" s="6"/>
     </row>
     <row r="122" spans="1:17" ht="13.5" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q122" s="6"/>
     </row>
     <row r="123" spans="1:17" ht="13.5" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A124" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q123" s="6"/>
-    </row>
-    <row r="124" spans="1:17" ht="13.5" customHeight="1">
+      <c r="B124" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="Q124" s="6"/>
     </row>
     <row r="125" spans="1:17" ht="13.5" customHeight="1">
